--- a/biology/Zoologie/Apagobelus/Apagobelus.xlsx
+++ b/biology/Zoologie/Apagobelus/Apagobelus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Apagobelus est un genre d'insectes de l'ordre des coléoptères (insectes possédant en général deux paires d'ailes incluant entre autres les scarabées, coccinelles, lucanes, chrysomèles, hannetons, charançons et carabes). Ces insectes se développent dans les cônes de conifère[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Apagobelus est un genre d'insectes de l'ordre des coléoptères (insectes possédant en général deux paires d'ailes incluant entre autres les scarabées, coccinelles, lucanes, chrysomèles, hannetons, charançons et carabes). Ces insectes se développent dans les cônes de conifère.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Selon ITIS:
 Apagobelus brevirostris (Lea, 1917)</t>
